--- a/biology/Botanique/Saurauia_napaulensis/Saurauia_napaulensis.xlsx
+++ b/biology/Botanique/Saurauia_napaulensis/Saurauia_napaulensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">'Saurauia napaulensis est une espèce de plante de la famille des Actinidiaceae. Il est présent en Chine et en Malaisie.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre petit à moyen. Les feuilles mesurent de 20 à 35 cm sur 6,5 à 12 cm. Les apex sont acuminés, à base arrondie, leurs bords présentent de fines dents ; les 30 à 35 paires de nervures sont droites et proéminentes. Les fleurs sont d'environ 1,5 cm de diamètre, roses et forment des inflorescences axillaires ramifiées. Les fruits sont des baies globuleuses d'environ 8 mm de diamètre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre petit à moyen. Les feuilles mesurent de 20 à 35 cm sur 6,5 à 12 cm. Les apex sont acuminés, à base arrondie, leurs bords présentent de fines dents ; les 30 à 35 paires de nervures sont droites et proéminentes. Les fleurs sont d'environ 1,5 cm de diamètre, roses et forment des inflorescences axillaires ramifiées. Les fruits sont des baies globuleuses d'environ 8 mm de diamètre.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Synonymes Hétérotypiques[3] 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Synonymes Hétérotypiques 
 Saurauia napaulensis var. montana C.F.Liang &amp; Y.S.Wang in Fl. Reipubl. Popularis Sin. 49(2): 330 (1984)
 Saurauia napaulensis var. omeiensis C.F.Liang &amp; Y.S.Wang in Fl. Reipubl. Popularis Sin. 49(2): 330 (1984)
 Saurauia napaulensis var. tomenta Y.Luo &amp; S.K.Chen in Fl. Yunnanica 16: 807 (2006)
